--- a/layout_car_JM.xlsx
+++ b/layout_car_JM.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Rodrigues.LUSOREDE\Documents\GitHub\lr-hr-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11DA1A-708D-4D1E-98D3-C3C99CA2276A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719A085-331B-4C3C-A56A-8BB8BB1C7ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="8 Slots" sheetId="3" r:id="rId1"/>
+    <sheet name="9 Slots" sheetId="1" r:id="rId2"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="43">
   <si>
     <t>R</t>
   </si>
@@ -158,6 +159,9 @@
   </si>
   <si>
     <t>C18</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -293,7 +297,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -610,11 +635,1566 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A72C970-B28F-448D-A704-BAC09689FECD}">
+  <dimension ref="C2:X42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:X15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="19" width="7.5703125" customWidth="1"/>
+    <col min="20" max="21" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>C4+1</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>C5+6</f>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <f>$C6</f>
+        <v>13</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" ref="C7:C19" si="0">C6+1</f>
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="8">
+        <f t="shared" ref="R7" si="1">R6+1</f>
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f t="shared" ref="C8:C19" si="2">C7+6</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:Q8" si="3">$C8</f>
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="T8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" ref="C9:C19" si="4">C8+1</f>
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="8">
+        <f t="shared" ref="O9:Q9" si="5">O8+1</f>
+        <v>21</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="T9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f t="shared" ref="C10:C19" si="6">C9+6</f>
+        <v>27</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <f t="shared" ref="K10:N10" si="7">$C10</f>
+        <v>27</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9">
+        <f>$C10</f>
+        <v>27</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" ref="C11:C19" si="8">C10+1</f>
+        <v>28</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11:N11" si="9">K10+1</f>
+        <v>28</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="14">
+        <f t="shared" ref="R11" si="10">R10+1</f>
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f t="shared" ref="C12:C19" si="11">C11+6</f>
+        <v>34</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12:J12" si="12">$C12</f>
+        <v>34</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9">
+        <f>$C12</f>
+        <v>34</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="T12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" ref="C13:C19" si="13">C12+1</f>
+        <v>35</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="8">
+        <f t="shared" ref="H13:J13" si="14">H12+1</f>
+        <v>35</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="14">
+        <f t="shared" ref="Q13" si="15">Q12+1</f>
+        <v>35</v>
+      </c>
+      <c r="R13" s="14"/>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f t="shared" ref="C14:C19" si="16">C13+6</f>
+        <v>41</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:G14" si="17">$C14</f>
+        <v>41</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="17"/>
+        <v>41</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <f>$C14</f>
+        <v>41</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9">
+        <f t="shared" ref="M14:P14" si="18">$C14</f>
+        <v>41</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="18"/>
+        <v>41</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <f>$C16</f>
+        <v>48</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" ref="C15:C19" si="19">C14+1</f>
+        <v>42</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15:G15" si="20">F14+1</f>
+        <v>42</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="10">
+        <f t="shared" ref="J15" si="21">J14+1</f>
+        <v>42</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="14">
+        <f t="shared" ref="M15:P15" si="22">M14+1</f>
+        <v>42</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15">
+        <f t="shared" ref="R15" si="23">R14+1</f>
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" ref="C16:C19" si="24">C15+6</f>
+        <v>48</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <f>$C16</f>
+        <v>48</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <f>$C16</f>
+        <v>48</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <f t="shared" ref="I16:J16" si="25">$C16</f>
+        <v>48</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="25"/>
+        <v>48</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
+        <f>$C16</f>
+        <v>48</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <f>$C16</f>
+        <v>48</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4">
+        <f t="shared" ref="P16:Q16" si="26">$C16</f>
+        <v>48</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="26"/>
+        <v>48</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="T16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" ref="C17:C19" si="27">C16+1</f>
+        <v>49</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17" si="28">E16+1</f>
+        <v>49</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="10">
+        <f t="shared" ref="G17" si="29">G16+1</f>
+        <v>49</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="10">
+        <f t="shared" ref="I17:J17" si="30">I16+1</f>
+        <v>49</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="30"/>
+        <v>49</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="10">
+        <f t="shared" ref="L17" si="31">L16+1</f>
+        <v>49</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="5">
+        <f t="shared" ref="N17" si="32">N16+1</f>
+        <v>49</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="5">
+        <f t="shared" ref="P17:Q17" si="33">P16+1</f>
+        <v>49</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="T17" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" ref="C18:C19" si="34">C17+6</f>
+        <v>55</v>
+      </c>
+      <c r="D18" s="2">
+        <f>$C$19</f>
+        <v>56</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" ref="E18:R18" si="35">$C$19</f>
+        <v>56</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" ref="C19" si="36">C18+1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="S22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="12">
+        <v>8</v>
+      </c>
+      <c r="T23" s="12">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
+        <f>SUM(S23:V23)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="12">
+        <v>7</v>
+      </c>
+      <c r="T24" s="12">
+        <v>1</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" ref="W24:W37" si="37">SUM(S24:V24)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="12">
+        <v>6</v>
+      </c>
+      <c r="T25" s="12">
+        <v>2</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="12">
+        <v>6</v>
+      </c>
+      <c r="T26" s="12">
+        <v>1</v>
+      </c>
+      <c r="U26" s="12">
+        <v>1</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="12">
+        <v>5</v>
+      </c>
+      <c r="T27" s="12">
+        <v>3</v>
+      </c>
+      <c r="U27" s="12">
+        <v>0</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" s="12">
+        <v>5</v>
+      </c>
+      <c r="T28" s="12">
+        <v>2</v>
+      </c>
+      <c r="U28" s="12">
+        <v>1</v>
+      </c>
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="12">
+        <v>5</v>
+      </c>
+      <c r="T29" s="12">
+        <v>1</v>
+      </c>
+      <c r="U29" s="12">
+        <v>1</v>
+      </c>
+      <c r="V29" s="12">
+        <v>1</v>
+      </c>
+      <c r="W29" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="12">
+        <v>4</v>
+      </c>
+      <c r="T30" s="12">
+        <v>4</v>
+      </c>
+      <c r="U30" s="12">
+        <v>0</v>
+      </c>
+      <c r="V30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31" s="12">
+        <v>4</v>
+      </c>
+      <c r="T31" s="12">
+        <v>3</v>
+      </c>
+      <c r="U31" s="12">
+        <v>1</v>
+      </c>
+      <c r="V31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="12">
+        <v>4</v>
+      </c>
+      <c r="T32" s="12">
+        <v>2</v>
+      </c>
+      <c r="U32" s="12">
+        <v>2</v>
+      </c>
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="12">
+        <v>4</v>
+      </c>
+      <c r="T33" s="12">
+        <v>2</v>
+      </c>
+      <c r="U33" s="12">
+        <v>1</v>
+      </c>
+      <c r="V33" s="12">
+        <v>1</v>
+      </c>
+      <c r="W33" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="12">
+        <v>3</v>
+      </c>
+      <c r="T34" s="12">
+        <v>3</v>
+      </c>
+      <c r="U34" s="12">
+        <v>2</v>
+      </c>
+      <c r="V34" s="12">
+        <v>0</v>
+      </c>
+      <c r="W34" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="12">
+        <v>3</v>
+      </c>
+      <c r="T35" s="12">
+        <v>3</v>
+      </c>
+      <c r="U35" s="12">
+        <v>1</v>
+      </c>
+      <c r="V35" s="12">
+        <v>1</v>
+      </c>
+      <c r="W35" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="12">
+        <v>3</v>
+      </c>
+      <c r="T36" s="12">
+        <v>2</v>
+      </c>
+      <c r="U36" s="12">
+        <v>2</v>
+      </c>
+      <c r="V36" s="12">
+        <v>1</v>
+      </c>
+      <c r="W36" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>38</v>
+      </c>
+      <c r="R37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="12">
+        <v>2</v>
+      </c>
+      <c r="T37" s="12">
+        <v>2</v>
+      </c>
+      <c r="U37" s="12">
+        <v>2</v>
+      </c>
+      <c r="V37" s="12">
+        <v>2</v>
+      </c>
+      <c r="W37" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+    </row>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+    </row>
+    <row r="40" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="I23:J24">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23:W37">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BADBEF-02C2-40DE-8E06-D9D044A0E7FB}">
   <dimension ref="C2:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView topLeftCell="C10" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +3020,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:U18" si="17">$C18</f>
+        <f t="shared" ref="E18:Q18" si="17">$C18</f>
         <v>45</v>
       </c>
       <c r="F18" s="9"/>
@@ -1508,7 +3088,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="3">
-        <f t="shared" ref="E19:U19" si="18">E18+1</f>
+        <f t="shared" ref="E19:R19" si="18">E18+1</f>
         <v>46</v>
       </c>
       <c r="F19" s="3"/>
@@ -1684,6 +3264,36 @@
         <v>4</v>
       </c>
       <c r="J24" s="12"/>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
@@ -1706,6 +3316,32 @@
         <v>9</v>
       </c>
       <c r="J25" s="12"/>
+      <c r="K25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="R25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="12">
+        <v>8</v>
+      </c>
+      <c r="T25" s="12">
+        <v>0</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
+        <f>SUM(S25:V25)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
@@ -1728,6 +3364,40 @@
         <v>9</v>
       </c>
       <c r="J26" s="12"/>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="12">
+        <v>7</v>
+      </c>
+      <c r="T26" s="12">
+        <v>1</v>
+      </c>
+      <c r="U26" s="12">
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" ref="W26:W42" si="22">SUM(S26:V26)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
@@ -1750,6 +3420,40 @@
         <v>9</v>
       </c>
       <c r="J27" s="12"/>
+      <c r="K27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="12">
+        <v>6</v>
+      </c>
+      <c r="T27" s="12">
+        <v>2</v>
+      </c>
+      <c r="U27" s="12">
+        <v>0</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
@@ -1768,10 +3472,44 @@
         <v>0</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" ref="I28" si="22">SUM(E28:H28)</f>
+        <f t="shared" ref="I28" si="23">SUM(E28:H28)</f>
         <v>9</v>
       </c>
       <c r="J28" s="12"/>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="12">
+        <v>6</v>
+      </c>
+      <c r="T28" s="12">
+        <v>1</v>
+      </c>
+      <c r="U28" s="12">
+        <v>1</v>
+      </c>
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -1790,10 +3528,44 @@
         <v>0</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I42" si="23">SUM(E29:H29)</f>
+        <f t="shared" ref="I29:I42" si="24">SUM(E29:H29)</f>
         <v>9</v>
       </c>
       <c r="J29" s="12"/>
+      <c r="K29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="12">
+        <v>5</v>
+      </c>
+      <c r="T29" s="12">
+        <v>3</v>
+      </c>
+      <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <v>0</v>
+      </c>
+      <c r="W29" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
@@ -1812,10 +3584,44 @@
         <v>0</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J30" s="12"/>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="12">
+        <v>5</v>
+      </c>
+      <c r="T30" s="12">
+        <v>2</v>
+      </c>
+      <c r="U30" s="12">
+        <v>1</v>
+      </c>
+      <c r="V30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
@@ -1834,10 +3640,44 @@
         <v>1</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J31" s="12"/>
+      <c r="K31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="12">
+        <v>5</v>
+      </c>
+      <c r="T31" s="12">
+        <v>1</v>
+      </c>
+      <c r="U31" s="12">
+        <v>1</v>
+      </c>
+      <c r="V31" s="12">
+        <v>1</v>
+      </c>
+      <c r="W31" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
@@ -1856,12 +3696,46 @@
         <v>0</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" s="12">
+        <v>4</v>
+      </c>
+      <c r="T32" s="12">
+        <v>4</v>
+      </c>
+      <c r="U32" s="12">
+        <v>0</v>
+      </c>
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>19</v>
       </c>
@@ -1878,12 +3752,46 @@
         <v>0</v>
       </c>
       <c r="I33" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="12">
+        <v>4</v>
+      </c>
+      <c r="T33" s="12">
+        <v>3</v>
+      </c>
+      <c r="U33" s="12">
+        <v>1</v>
+      </c>
+      <c r="V33" s="12">
+        <v>0</v>
+      </c>
+      <c r="W33" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>5</v>
       </c>
@@ -1900,12 +3808,46 @@
         <v>0</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="12">
+        <v>4</v>
+      </c>
+      <c r="T34" s="12">
+        <v>2</v>
+      </c>
+      <c r="U34" s="12">
+        <v>2</v>
+      </c>
+      <c r="V34" s="12">
+        <v>0</v>
+      </c>
+      <c r="W34" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -1922,12 +3864,46 @@
         <v>1</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" s="12">
+        <v>4</v>
+      </c>
+      <c r="T35" s="12">
+        <v>2</v>
+      </c>
+      <c r="U35" s="12">
+        <v>1</v>
+      </c>
+      <c r="V35" s="12">
+        <v>1</v>
+      </c>
+      <c r="W35" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>7</v>
       </c>
@@ -1944,12 +3920,46 @@
         <v>0</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="12">
+        <v>3</v>
+      </c>
+      <c r="T36" s="12">
+        <v>3</v>
+      </c>
+      <c r="U36" s="12">
+        <v>2</v>
+      </c>
+      <c r="V36" s="12">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>8</v>
       </c>
@@ -1966,12 +3976,46 @@
         <v>0</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" s="12">
+        <v>3</v>
+      </c>
+      <c r="T37" s="12">
+        <v>3</v>
+      </c>
+      <c r="U37" s="12">
+        <v>1</v>
+      </c>
+      <c r="V37" s="12">
+        <v>1</v>
+      </c>
+      <c r="W37" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>9</v>
       </c>
@@ -1988,12 +4032,46 @@
         <v>1</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="12">
+        <v>3</v>
+      </c>
+      <c r="T38" s="12">
+        <v>2</v>
+      </c>
+      <c r="U38" s="12">
+        <v>2</v>
+      </c>
+      <c r="V38" s="12">
+        <v>1</v>
+      </c>
+      <c r="W38" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>10</v>
       </c>
@@ -2010,12 +4088,46 @@
         <v>1</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" s="12">
+        <v>2</v>
+      </c>
+      <c r="T39" s="12">
+        <v>2</v>
+      </c>
+      <c r="U39" s="12">
+        <v>2</v>
+      </c>
+      <c r="V39" s="12">
+        <v>2</v>
+      </c>
+      <c r="W39" s="12">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>39</v>
       </c>
@@ -2032,12 +4144,32 @@
         <v>0</v>
       </c>
       <c r="I40" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>40</v>
       </c>
@@ -2054,12 +4186,32 @@
         <v>1</v>
       </c>
       <c r="I41" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>41</v>
       </c>
@@ -2076,14 +4228,24 @@
         <v>2</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="J42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I25:J26">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25:W26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>9</formula>
     </cfRule>
@@ -2093,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58252C10-6626-4544-A8AC-C27105155D7B}">
   <dimension ref="A1:A16"/>
   <sheetViews>

--- a/layout_car_JM.xlsx
+++ b/layout_car_JM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Rodrigues.LUSOREDE\Documents\GitHub\lr-hr-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719A085-331B-4C3C-A56A-8BB8BB1C7ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F1A61-0F5D-4D11-B25F-193E353BCA6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Slots" sheetId="3" r:id="rId1"/>
@@ -191,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -293,6 +299,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A72C970-B28F-448D-A704-BAC09689FECD}">
   <dimension ref="C2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="T15" sqref="T15:X15"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +852,7 @@
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7">
-        <f t="shared" ref="C7:C19" si="0">C6+1</f>
+        <f t="shared" ref="C7" si="0">C6+1</f>
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
@@ -881,7 +891,7 @@
     </row>
     <row r="8" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8">
-        <f t="shared" ref="C8:C19" si="2">C7+6</f>
+        <f t="shared" ref="C8" si="2">C7+6</f>
         <v>20</v>
       </c>
       <c r="D8" s="2"/>
@@ -926,7 +936,7 @@
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f t="shared" ref="C9:C19" si="4">C8+1</f>
+        <f t="shared" ref="C9" si="4">C8+1</f>
         <v>21</v>
       </c>
       <c r="D9" s="1"/>
@@ -971,7 +981,7 @@
     </row>
     <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10">
-        <f t="shared" ref="C10:C19" si="6">C9+6</f>
+        <f t="shared" ref="C10" si="6">C9+6</f>
         <v>27</v>
       </c>
       <c r="D10" s="2"/>
@@ -1022,7 +1032,7 @@
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f t="shared" ref="C11:C19" si="8">C10+1</f>
+        <f t="shared" ref="C11" si="8">C10+1</f>
         <v>28</v>
       </c>
       <c r="D11" s="1"/>
@@ -1073,7 +1083,7 @@
     </row>
     <row r="12" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12">
-        <f t="shared" ref="C12:C19" si="11">C11+6</f>
+        <f t="shared" ref="C12" si="11">C11+6</f>
         <v>34</v>
       </c>
       <c r="D12" s="2"/>
@@ -1121,7 +1131,7 @@
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="13">C12+1</f>
+        <f t="shared" ref="C13" si="13">C12+1</f>
         <v>35</v>
       </c>
       <c r="D13" s="1"/>
@@ -1169,7 +1179,7 @@
     </row>
     <row r="14" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14">
-        <f t="shared" ref="C14:C19" si="16">C13+6</f>
+        <f t="shared" ref="C14" si="16">C13+6</f>
         <v>41</v>
       </c>
       <c r="D14" s="2"/>
@@ -1229,7 +1239,7 @@
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f t="shared" ref="C15:C19" si="19">C14+1</f>
+        <f t="shared" ref="C15" si="19">C14+1</f>
         <v>42</v>
       </c>
       <c r="D15" s="1"/>
@@ -1289,7 +1299,7 @@
     </row>
     <row r="16" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16">
-        <f t="shared" ref="C16:C19" si="24">C15+6</f>
+        <f t="shared" ref="C16" si="24">C15+6</f>
         <v>48</v>
       </c>
       <c r="D16" s="2"/>
@@ -1349,7 +1359,7 @@
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17">
-        <f t="shared" ref="C17:C19" si="27">C16+1</f>
+        <f t="shared" ref="C17" si="27">C16+1</f>
         <v>49</v>
       </c>
       <c r="D17" s="7"/>
@@ -1409,7 +1419,7 @@
     </row>
     <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18">
-        <f t="shared" ref="C18:C19" si="34">C17+6</f>
+        <f t="shared" ref="C18" si="34">C17+6</f>
         <v>55</v>
       </c>
       <c r="D18" s="2">
@@ -3395,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" ref="W26:W42" si="22">SUM(S26:V26)</f>
+        <f t="shared" ref="W26:W39" si="22">SUM(S26:V26)</f>
         <v>8</v>
       </c>
     </row>
@@ -4257,93 +4267,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58252C10-6626-4544-A8AC-C27105155D7B}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="62" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="BD14" s="19"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>12</v>
+      </c>
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <v>15</v>
+      </c>
+      <c r="X15">
+        <v>16</v>
+      </c>
+      <c r="Y15">
+        <v>17</v>
+      </c>
+      <c r="Z15">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>19</v>
+      </c>
+      <c r="AB15">
+        <v>20</v>
+      </c>
+      <c r="AC15">
+        <v>21</v>
+      </c>
+      <c r="AD15">
+        <v>22</v>
+      </c>
+      <c r="AE15">
+        <v>23</v>
+      </c>
+      <c r="AF15">
+        <v>24</v>
+      </c>
+      <c r="AG15">
+        <v>25</v>
+      </c>
+      <c r="AH15">
+        <v>26</v>
+      </c>
+      <c r="AI15">
+        <v>27</v>
+      </c>
+      <c r="AJ15">
+        <v>28</v>
+      </c>
+      <c r="AK15">
+        <v>29</v>
+      </c>
+      <c r="AL15">
+        <v>30</v>
+      </c>
+      <c r="AM15">
+        <v>31</v>
+      </c>
+      <c r="AN15">
+        <v>32</v>
+      </c>
+      <c r="AO15">
+        <v>33</v>
+      </c>
+      <c r="AP15">
+        <v>34</v>
+      </c>
+      <c r="AQ15">
+        <v>35</v>
+      </c>
+      <c r="AR15">
+        <v>36</v>
+      </c>
+      <c r="AS15">
+        <v>37</v>
+      </c>
+      <c r="AT15">
+        <v>38</v>
+      </c>
+      <c r="AU15">
+        <v>39</v>
+      </c>
+      <c r="AV15">
+        <v>40</v>
+      </c>
+      <c r="AW15">
+        <v>41</v>
+      </c>
+      <c r="AX15">
+        <v>42</v>
+      </c>
+      <c r="AY15">
+        <v>43</v>
+      </c>
+      <c r="AZ15">
+        <v>44</v>
+      </c>
+      <c r="BA15">
+        <v>45</v>
+      </c>
+      <c r="BB15">
+        <v>46</v>
+      </c>
+      <c r="BC15">
+        <v>47</v>
+      </c>
+      <c r="BD15">
+        <v>48</v>
+      </c>
+      <c r="BE15">
+        <v>49</v>
+      </c>
+      <c r="BF15">
+        <v>50</v>
+      </c>
+      <c r="BG15">
+        <v>51</v>
+      </c>
+      <c r="BH15">
+        <v>52</v>
+      </c>
+      <c r="BI15">
+        <v>53</v>
+      </c>
+      <c r="BJ15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/layout_car_JM.xlsx
+++ b/layout_car_JM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Rodrigues.LUSOREDE\Documents\GitHub\lr-hr-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F1A61-0F5D-4D11-B25F-193E353BCA6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A996CED-DCC8-4B6E-90FD-6E660924B78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Slots" sheetId="3" r:id="rId1"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A72C970-B28F-448D-A704-BAC09689FECD}">
   <dimension ref="C2:X42"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15:X15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,7 +4269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58252C10-6626-4544-A8AC-C27105155D7B}">
   <dimension ref="A1:BJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15:AO15"/>
     </sheetView>
   </sheetViews>

--- a/layout_car_JM.xlsx
+++ b/layout_car_JM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Rodrigues.LUSOREDE\Documents\GitHub\lr-hr-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A996CED-DCC8-4B6E-90FD-6E660924B78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7812EC17-814D-4852-A60B-2A39956FC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
   </bookViews>
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A72C970-B28F-448D-A704-BAC09689FECD}">
-  <dimension ref="C2:X42"/>
+  <dimension ref="D2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
     <col min="20" max="21" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
@@ -705,10 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>0</v>
-      </c>
+    <row r="3" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -740,10 +737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>6</v>
-      </c>
+    <row r="4" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -775,11 +769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <f>C4+1</f>
-        <v>7</v>
-      </c>
+    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -811,11 +801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <f>C5+6</f>
-        <v>13</v>
-      </c>
+    <row r="6" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -830,10 +816,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2">
-        <f>$C6</f>
-        <v>13</v>
-      </c>
+      <c r="R6" s="2"/>
       <c r="T6" s="13" t="s">
         <v>14</v>
       </c>
@@ -850,11 +833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <f t="shared" ref="C7" si="0">C6+1</f>
-        <v>14</v>
-      </c>
+    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -869,10 +848,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="8">
-        <f t="shared" ref="R7" si="1">R6+1</f>
-        <v>14</v>
-      </c>
+      <c r="R7" s="8"/>
       <c r="T7" t="s">
         <v>15</v>
       </c>
@@ -889,11 +865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <f t="shared" ref="C8" si="2">C7+6</f>
-        <v>20</v>
-      </c>
+    <row r="8" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -905,18 +877,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2">
-        <f t="shared" ref="O8:Q8" si="3">$C8</f>
-        <v>20</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="R8" s="9"/>
       <c r="T8" s="13" t="s">
         <v>16</v>
@@ -934,11 +897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f t="shared" ref="C9" si="4">C8+1</f>
-        <v>21</v>
-      </c>
+    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -950,18 +909,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="8">
-        <f t="shared" ref="O9:Q9" si="5">O8+1</f>
-        <v>21</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="T9" t="s">
         <v>17</v>
@@ -979,11 +929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <f t="shared" ref="C10" si="6">C9+6</f>
-        <v>27</v>
-      </c>
+    <row r="10" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -991,29 +937,14 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10:N10" si="7">$C10</f>
-        <v>27</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="9">
-        <f>$C10</f>
-        <v>27</v>
-      </c>
+      <c r="R10" s="9"/>
       <c r="T10" s="13" t="s">
         <v>18</v>
       </c>
@@ -1030,11 +961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <f t="shared" ref="C11" si="8">C10+1</f>
-        <v>28</v>
-      </c>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1042,29 +969,14 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="8">
-        <f t="shared" ref="K11:N11" si="9">K10+1</f>
-        <v>28</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="N11" s="8">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="14">
-        <f t="shared" ref="R11" si="10">R10+1</f>
-        <v>28</v>
-      </c>
+      <c r="R11" s="14"/>
       <c r="T11" t="s">
         <v>19</v>
       </c>
@@ -1081,37 +993,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <f t="shared" ref="C12" si="11">C11+6</f>
-        <v>34</v>
-      </c>
+    <row r="12" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <f t="shared" ref="H12:J12" si="12">$C12</f>
-        <v>34</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9">
-        <f>$C12</f>
-        <v>34</v>
-      </c>
+      <c r="Q12" s="9"/>
       <c r="R12" s="4"/>
       <c r="T12" s="13" t="s">
         <v>5</v>
@@ -1129,37 +1025,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f t="shared" ref="C13" si="13">C12+1</f>
-        <v>35</v>
-      </c>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8">
-        <f t="shared" ref="H13:J13" si="14">H12+1</f>
-        <v>35</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="14">
-        <f t="shared" ref="Q13" si="15">Q12+1</f>
-        <v>35</v>
-      </c>
+      <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="T13" t="s">
         <v>6</v>
@@ -1177,50 +1057,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <f t="shared" ref="C14" si="16">C13+6</f>
-        <v>41</v>
-      </c>
+    <row r="14" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <f t="shared" ref="F14:G14" si="17">$C14</f>
-        <v>41</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="17"/>
-        <v>41</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9">
-        <f>$C14</f>
-        <v>41</v>
-      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="9">
-        <f t="shared" ref="M14:P14" si="18">$C14</f>
-        <v>41</v>
-      </c>
-      <c r="N14" s="9">
-        <f t="shared" si="18"/>
-        <v>41</v>
-      </c>
-      <c r="O14" s="9">
-        <f t="shared" si="18"/>
-        <v>41</v>
-      </c>
-      <c r="P14" s="9">
-        <f t="shared" si="18"/>
-        <v>41</v>
-      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4">
-        <f>$C16</f>
-        <v>48</v>
-      </c>
+      <c r="R14" s="4"/>
       <c r="T14" s="13" t="s">
         <v>7</v>
       </c>
@@ -1237,50 +1089,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f t="shared" ref="C15" si="19">C14+1</f>
-        <v>42</v>
-      </c>
+    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15:G15" si="20">F14+1</f>
-        <v>42</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="20"/>
-        <v>42</v>
-      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="10">
-        <f t="shared" ref="J15" si="21">J14+1</f>
-        <v>42</v>
-      </c>
+      <c r="J15" s="10"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="14">
-        <f t="shared" ref="M15:P15" si="22">M14+1</f>
-        <v>42</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" si="22"/>
-        <v>42</v>
-      </c>
-      <c r="O15" s="14">
-        <f t="shared" si="22"/>
-        <v>42</v>
-      </c>
-      <c r="P15" s="14">
-        <f t="shared" si="22"/>
-        <v>42</v>
-      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="15">
-        <f t="shared" ref="R15" si="23">R14+1</f>
-        <v>49</v>
-      </c>
+      <c r="R15" s="15"/>
       <c r="T15" t="s">
         <v>8</v>
       </c>
@@ -1297,49 +1121,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f t="shared" ref="C16" si="24">C15+6</f>
-        <v>48</v>
-      </c>
+    <row r="16" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <f>$C16</f>
-        <v>48</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9">
-        <f>$C16</f>
-        <v>48</v>
-      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <f t="shared" ref="I16:J16" si="25">$C16</f>
-        <v>48</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="25"/>
-        <v>48</v>
-      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="9">
-        <f>$C16</f>
-        <v>48</v>
-      </c>
+      <c r="L16" s="9"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <f>$C16</f>
-        <v>48</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4">
-        <f t="shared" ref="P16:Q16" si="26">$C16</f>
-        <v>48</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="26"/>
-        <v>48</v>
-      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="6"/>
       <c r="T16" s="13" t="s">
         <v>9</v>
@@ -1357,49 +1153,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f t="shared" ref="C17" si="27">C16+1</f>
-        <v>49</v>
-      </c>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17" si="28">E16+1</f>
-        <v>49</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="10">
-        <f t="shared" ref="G17" si="29">G16+1</f>
-        <v>49</v>
-      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10">
-        <f t="shared" ref="I17:J17" si="30">I16+1</f>
-        <v>49</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="30"/>
-        <v>49</v>
-      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="10">
-        <f t="shared" ref="L17" si="31">L16+1</f>
-        <v>49</v>
-      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="5">
-        <f t="shared" ref="N17" si="32">N16+1</f>
-        <v>49</v>
-      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="5">
-        <f t="shared" ref="P17:Q17" si="33">P16+1</f>
-        <v>49</v>
-      </c>
-      <c r="Q17" s="5">
-        <f t="shared" si="33"/>
-        <v>49</v>
-      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="T17" t="s">
         <v>10</v>
@@ -1417,79 +1185,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <f t="shared" ref="C18" si="34">C17+6</f>
-        <v>55</v>
-      </c>
-      <c r="D18" s="2">
-        <f>$C$19</f>
-        <v>56</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" ref="E18:R18" si="35">$C$19</f>
-        <v>56</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="H18" s="9">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-      <c r="R18" s="6">
-        <f t="shared" si="35"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f t="shared" ref="C19" si="36">C18+1</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1512,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1554,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -1592,11 +1305,11 @@
         <v>0</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" ref="W24:W37" si="37">SUM(S24:V24)</f>
+        <f t="shared" ref="W24:W37" si="0">SUM(S24:V24)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -1634,11 +1347,11 @@
         <v>0</v>
       </c>
       <c r="W25" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -1676,11 +1389,11 @@
         <v>0</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -1718,11 +1431,11 @@
         <v>0</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -1760,11 +1473,11 @@
         <v>0</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -1802,11 +1515,11 @@
         <v>1</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -1844,11 +1557,11 @@
         <v>0</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -1886,11 +1599,11 @@
         <v>0</v>
       </c>
       <c r="W31" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -1928,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1970,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2012,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2054,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="W35" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2096,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="W36" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2138,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>

--- a/layout_car_JM.xlsx
+++ b/layout_car_JM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Rodrigues.LUSOREDE\Documents\GitHub\lr-hr-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7812EC17-814D-4852-A60B-2A39956FC634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189EB9A1-7E25-4417-9FC3-1CAE34038DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2706D059-F555-471D-96B4-7641633DA6CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="66">
   <si>
     <t>R</t>
   </si>
@@ -162,6 +162,75 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>IR01</t>
+  </si>
+  <si>
+    <t>IR02</t>
+  </si>
+  <si>
+    <t>IR03</t>
+  </si>
+  <si>
+    <t>IR04</t>
+  </si>
+  <si>
+    <t>IR05</t>
+  </si>
+  <si>
+    <t>IR06</t>
+  </si>
+  <si>
+    <t>IR07</t>
+  </si>
+  <si>
+    <t>IR08</t>
+  </si>
+  <si>
+    <t>8 0 0 0</t>
+  </si>
+  <si>
+    <t>7 1 0 0</t>
+  </si>
+  <si>
+    <t>6 2 0 0</t>
+  </si>
+  <si>
+    <t>6 1 1 0</t>
+  </si>
+  <si>
+    <t>5 3 0 0</t>
+  </si>
+  <si>
+    <t>5 2 1 0</t>
+  </si>
+  <si>
+    <t>5 1 1 1</t>
+  </si>
+  <si>
+    <t>4 4 0 0</t>
+  </si>
+  <si>
+    <t>4 3 1 0</t>
+  </si>
+  <si>
+    <t>4 2 2 0</t>
+  </si>
+  <si>
+    <t>4 2 1 1</t>
+  </si>
+  <si>
+    <t>3 3 2 0</t>
+  </si>
+  <si>
+    <t>3 3 1 1</t>
+  </si>
+  <si>
+    <t>3 2 2 1</t>
+  </si>
+  <si>
+    <t>2 2 2 2</t>
   </si>
 </sst>
 </file>
@@ -646,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A72C970-B28F-448D-A704-BAC09689FECD}">
-  <dimension ref="D2:X42"/>
+  <dimension ref="C2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="C4" sqref="C4:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +727,7 @@
     <col min="20" max="21" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
@@ -705,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -737,7 +806,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -769,7 +841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -801,7 +873,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -833,7 +908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -865,7 +940,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -897,7 +975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -929,7 +1007,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -961,7 +1042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -993,7 +1074,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1025,7 +1109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1057,7 +1141,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1089,7 +1176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="8"/>
@@ -1121,7 +1208,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
@@ -1153,7 +1243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1185,7 +1275,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1202,7 +1295,54 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1225,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1267,7 +1407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -1309,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -1351,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -1393,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -1435,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -1477,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -1519,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -1561,7 +1701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -1603,7 +1743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
